--- a/trunk/DOCS/Architecture and design/List of classes.xlsx
+++ b/trunk/DOCS/Architecture and design/List of classes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="18135" windowHeight="8925"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="122">
   <si>
     <t>R_Answer Request</t>
   </si>
@@ -300,36 +300,9 @@
     <t>R_View Volunteers Incident Progress Report</t>
   </si>
   <si>
-    <t>«boundary» B_IncidentProgressReportPage</t>
-  </si>
-  <si>
-    <t>«control» B_IncidentProgressReportPage</t>
-  </si>
-  <si>
-    <t>«control» C_ShowMap</t>
-  </si>
-  <si>
-    <t>«control» C_ViewIncidentProgressReport</t>
-  </si>
-  <si>
-    <t>«entity» E_Report</t>
-  </si>
-  <si>
     <t xml:space="preserve">R_View volunteers' incident report </t>
   </si>
   <si>
-    <t>«boundary» B_Incident Report page</t>
-  </si>
-  <si>
-    <t>«control» C_DefineRegionOnMap</t>
-  </si>
-  <si>
-    <t>«control» C_View Report</t>
-  </si>
-  <si>
-    <t>«entity» E_Volunteers Report</t>
-  </si>
-  <si>
     <t>R_Volunteer Edit Profile</t>
   </si>
   <si>
@@ -391,6 +364,24 @@
   </si>
   <si>
     <t>Contains in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B_IncidentProgressReportPage</t>
+  </si>
+  <si>
+    <t>C_ShowMap</t>
+  </si>
+  <si>
+    <t>C_ViewIncidentProgressReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B_Incident Report page</t>
+  </si>
+  <si>
+    <t>C_View Report</t>
+  </si>
+  <si>
+    <t>E_Volunteers Report</t>
   </si>
 </sst>
 </file>
@@ -733,24 +724,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -1683,7 +1679,10 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1691,7 +1690,10 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1699,7 +1701,10 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1707,7 +1712,10 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1715,55 +1723,70 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -1774,40 +1797,40 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -1818,18 +1841,18 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -1840,7 +1863,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -1851,7 +1874,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -1862,29 +1885,29 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -1895,40 +1918,40 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -1939,35 +1962,35 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
